--- a/Templates/BC03_ThongKeTheoDoiDiem.xlsx
+++ b/Templates/BC03_ThongKeTheoDoiDiem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\0_QuanLyHocVien\O2S_QuanLyHocVien\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\O2S_QuanLyHocVien\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DIEMTRUNGBINH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].MAKHOAHOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].MALOPHOC</t>
   </si>
 </sst>
 </file>
@@ -359,21 +365,6 @@
     <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,14 +384,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,83 +715,87 @@
       </c>
       <c r="B1" s="3"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="38" t="str">
+      <c r="E3" s="40" t="str">
         <f>G4&amp;" - " &amp;J4</f>
         <v>&amp;=[DATA].TENKHOAHOC - &amp;=[DATA].TENLOPHOC</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
-    <row r="4" spans="1:16" s="33" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="28" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="B4" s="32"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -848,16 +858,16 @@
       <c r="I8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -865,7 +875,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="24"/>
-      <c r="L9" s="39"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I11" s="11" t="s">
